--- a/汽车产品设计.xlsx
+++ b/汽车产品设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>brand 品牌表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,14 +171,25 @@
   </si>
   <si>
     <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>车型id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在售，1在售，-1不在售</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +204,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,17 +251,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -285,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,9 +346,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,6 +381,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,14 +557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
@@ -543,14 +574,15 @@
     <col min="7" max="7" width="20.75" customWidth="1"/>
     <col min="12" max="12" width="19.25" customWidth="1"/>
     <col min="13" max="13" width="25.5" customWidth="1"/>
+    <col min="14" max="14" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="47.25" customHeight="1">
+    <row r="2" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -567,7 +599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="46.5" customHeight="1">
+    <row r="3" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -581,12 +613,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="66.75" customHeight="1">
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="37.5" customHeight="1">
+    <row r="5" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -627,7 +659,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="44.25" customHeight="1">
+    <row r="6" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -665,12 +697,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="63.75" customHeight="1">
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="49.5" customHeight="1">
+    <row r="8" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -710,8 +742,11 @@
       <c r="M8" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="N8" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" ht="58.5" customHeight="1">
+    <row r="9" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -722,7 +757,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -747,6 +782,9 @@
       </c>
       <c r="M9" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -762,12 +800,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -776,12 +814,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
